--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
+          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola Galvarino S.A.</t>
+          <t>AGRICOLA, GANADERA, FORESTAL, ARIDOS RIO QUILLEM LTDA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>111488</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
+          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Isabel Olaya Gaete Arce</t>
+          <t>Agrícola Galvarino S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>111488</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Isabel Olaya Gaete Arce</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Partido (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31/05/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Piscicultura Cerro Partido (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>31/05/2005</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,20 +1263,68 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>01/02/2005</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>04/03/1999</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131921352&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Galvarino</t>
         </is>

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/05/2022</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
+          <t>AMPLIACIÓN DEL POZO EXTRACCIÓN DE ÁRIDOS CANTERA QUILLÉN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/05/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156598186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
+          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola Galvarino S.A.</t>
+          <t>AGRICOLA, GANADERA, FORESTAL, ARIDOS RIO QUILLEM LTDA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>111488</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
+          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Isabel Olaya Gaete Arce</t>
+          <t>Agrícola Galvarino S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>111488</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Isabel Olaya Gaete Arce</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Partido (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/05/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Piscicultura Cerro Partido (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>31/05/2005</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,20 +1311,68 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>01/02/2005</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>04/03/1999</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131921352&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Galvarino</t>
         </is>

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DEL POZO EXTRACCIÓN DE ÁRIDOS CANTERA QUILLÉN</t>
+          <t>REPOSICION LICEO GREGORIO URRUTIA, GALVARINO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGRICOLA, GANADERA, FORESTAL, ARIDOS RIO QUILLEM LTDA</t>
+          <t>Jorge Fernando Vergara Figueroa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>805</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/08/2022</t>
+          <t>29/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156598186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159281186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
+          <t>AMPLIACIÓN DEL POZO EXTRACCIÓN DE ÁRIDOS CANTERA QUILLÉN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/05/2022</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156598186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
+          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agrícola Galvarino S.A.</t>
+          <t>AGRICOLA, GANADERA, FORESTAL, ARIDOS RIO QUILLEM LTDA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>111488</v>
+        <v>50</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
+          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Isabel Olaya Gaete Arce</t>
+          <t>Agrícola Galvarino S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>111488</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Isabel Olaya Gaete Arce</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Partido (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/05/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Piscicultura Cerro Partido (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>31/05/2005</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,20 +1359,68 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>01/02/2005</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>04/03/1999</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131921352&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Galvarino</t>
         </is>

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REPOSICION LICEO GREGORIO URRUTIA, GALVARINO</t>
+          <t>Diseño Sistema Agua Potable Rural Comunidades Rurales Camino Temuco - Chol Chol, Comunas de Temuco, Chol Chol y Galvarino, Región de la Araucanía</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jorge Fernando Vergara Figueroa</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>805</v>
+        <v>39258</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159281186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160206755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DEL POZO EXTRACCIÓN DE ÁRIDOS CANTERA QUILLÉN</t>
+          <t>REPOSICION LICEO GREGORIO URRUTIA, GALVARINO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGRICOLA, GANADERA, FORESTAL, ARIDOS RIO QUILLEM LTDA</t>
+          <t>Jorge Fernando Vergara Figueroa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>805</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/08/2022</t>
+          <t>29/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156598186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159281186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
+          <t>AMPLIACIÓN DEL POZO EXTRACCIÓN DE ÁRIDOS CANTERA QUILLÉN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/05/2022</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156598186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
+          <t>AMPLIACIÓN DE POZO DE EXTRACCIÓN DE ÁRIDOS CANTERA QUILLEN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agrícola Galvarino S.A.</t>
+          <t>AGRICOLA, GANADERA, FORESTAL, ARIDOS RIO QUILLEM LTDA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>111488</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155851519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
+          <t>Embalse 1, 2 y 3 Fundo Nilpe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Isabel Olaya Gaete Arce</t>
+          <t>Agrícola Galvarino S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>111488</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Regularización y Ampliación de Extracción de Aridos Pozo Seco Río Quino</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Isabel Olaya Gaete Arce</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132864573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Piscicultura Cerro Partido (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/05/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Piscicultura Cerro Partido (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Soc. Agricola, Ganadera y Forestal Cerro Partido Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>31/05/2005</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,20 +1407,68 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>01/02/2005</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Instalación del servicio de Agua Potable Rural de Vega Boroa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>04/03/1999</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131921352&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Galvarino</t>
         </is>

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Galvarino.xlsx
+++ b/data/Galvarino.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
